--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2280.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2280.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147220075621028</v>
+        <v>1.19678008556366</v>
       </c>
       <c r="B1">
-        <v>2.907008995783925</v>
+        <v>2.482578277587891</v>
       </c>
       <c r="C1">
-        <v>4.418080598969494</v>
+        <v>4.18312931060791</v>
       </c>
       <c r="D1">
-        <v>3.179513341137573</v>
+        <v>2.076373100280762</v>
       </c>
       <c r="E1">
-        <v>1.218904508327646</v>
+        <v>1.183169603347778</v>
       </c>
     </row>
   </sheetData>
